--- a/Documents/DIYANA/DIGESTION/SPL DIGEST/231024 POW/2024100028.xlsx
+++ b/Documents/DIYANA/DIGESTION/SPL DIGEST/231024 POW/2024100028.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.41.163.147\Users\gunasama\Documents\DIYANA\DIGESTION\SPL DIGEST\TITAN\231024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\JOE-PC\Users\Gunasama\Documents\DIYANA\DIGESTION\SPL DIGEST\231024 POW\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F670B4EB-D277-4468-80DA-DACFEF326419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TITAN" sheetId="3" r:id="rId1"/>
     <sheet name="GERHADT" sheetId="5" r:id="rId2"/>
     <sheet name="WT BERSIH BOTOL" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -629,7 +630,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="###0.0;###0.0"/>
     <numFmt numFmtId="165" formatCode="###0.00;###0.00"/>
@@ -1307,137 +1308,278 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1445,116 +1587,71 @@
     <xf numFmtId="168" fontId="11" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1576,102 +1673,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2135,7 +2136,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-MY" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2182,8 +2183,8 @@
             <a:xfrm>
               <a:off x="4531683" y="897178"/>
               <a:ext cx="1840542" cy="346787"/>
-              <a:chOff x="5019310" y="923328"/>
-              <a:chExt cx="2078184" cy="229184"/>
+              <a:chOff x="5019312" y="923328"/>
+              <a:chExt cx="2078182" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -2249,7 +2250,7 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019310" y="923328"/>
+                <a:off x="5019312" y="923328"/>
                 <a:ext cx="304607" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
@@ -2296,8 +2297,8 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="6792691" y="927231"/>
-                <a:ext cx="304803" cy="215576"/>
+                <a:off x="6792692" y="927231"/>
+                <a:ext cx="304802" cy="215576"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -2721,7 +2722,7 @@
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="en-MY" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2766,10 +2767,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="4817436" y="897178"/>
-              <a:ext cx="1592889" cy="346787"/>
-              <a:chOff x="5019301" y="923328"/>
-              <a:chExt cx="2078183" cy="229184"/>
+              <a:off x="4817433" y="897178"/>
+              <a:ext cx="1592892" cy="346787"/>
+              <a:chOff x="5019299" y="923328"/>
+              <a:chExt cx="2078185" cy="229184"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -2835,8 +2836,8 @@
             </xdr:nvSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="5019301" y="923328"/>
-                <a:ext cx="304608" cy="229184"/>
+                <a:off x="5019299" y="923328"/>
+                <a:ext cx="304607" cy="229184"/>
               </a:xfrm>
               <a:prstGeom prst="rect">
                 <a:avLst/>
@@ -3280,9 +3281,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3320,9 +3321,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3357,7 +3358,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3392,7 +3393,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3565,11 +3566,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26:H26"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3584,58 +3585,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="48"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="108"/>
     </row>
     <row r="2" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="52">
+      <c r="B2" s="110"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="112">
         <v>2024100028</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="113"/>
     </row>
     <row r="3" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57" t="s">
+      <c r="B3" s="115"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="117" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="59"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="119"/>
     </row>
     <row r="4" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="44" t="s">
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="104" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="44"/>
-      <c r="H4" s="45"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="105"/>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -3646,190 +3647,190 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="11"/>
-      <c r="G5" s="62" t="s">
+      <c r="G5" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="H5" s="63"/>
+      <c r="H5" s="124"/>
     </row>
     <row r="6" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="112"/>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="74"/>
       <c r="F6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="38"/>
+      <c r="H6" s="120"/>
     </row>
     <row r="7" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="43"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="77"/>
       <c r="F7" s="30">
         <v>0.50600000000000001</v>
       </c>
-      <c r="G7" s="60">
+      <c r="G7" s="121">
         <v>50.006</v>
       </c>
-      <c r="H7" s="61">
+      <c r="H7" s="122">
         <v>50.115000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="113" t="s">
+      <c r="B8" s="69"/>
+      <c r="C8" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="114"/>
-      <c r="E8" s="115"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="80"/>
       <c r="F8" s="30">
-        <v>0.504</v>
-      </c>
-      <c r="G8" s="60">
-        <v>50.063000000000002</v>
-      </c>
-      <c r="H8" s="61">
+        <v>0.501</v>
+      </c>
+      <c r="G8" s="121">
+        <v>50.322000000000003</v>
+      </c>
+      <c r="H8" s="122">
         <v>50.052999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="106" t="s">
+      <c r="A9" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="107"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="43"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="77"/>
       <c r="F9" s="30">
-        <v>0.502</v>
-      </c>
-      <c r="G9" s="60">
-        <v>50.030999999999999</v>
-      </c>
-      <c r="H9" s="61">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="G9" s="121">
+        <v>50</v>
+      </c>
+      <c r="H9" s="122">
         <v>50.115000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="108"/>
-      <c r="B10" s="88" t="s">
+      <c r="A10" s="70"/>
+      <c r="B10" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="37" t="s">
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="98"/>
-      <c r="H10" s="99"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="61"/>
     </row>
     <row r="11" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="109"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="93"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="54"/>
       <c r="F11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="G11" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="38"/>
+      <c r="H11" s="120"/>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="100">
+      <c r="B12" s="62">
         <v>2.5</v>
       </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="102"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
       <c r="F12" s="6">
         <f>B12/F8</f>
-        <v>4.9603174603174605</v>
-      </c>
-      <c r="G12" s="39">
+        <v>4.9900199600798407</v>
+      </c>
+      <c r="G12" s="125">
         <f>B12/F9</f>
-        <v>4.9800796812749004</v>
-      </c>
-      <c r="H12" s="40"/>
+        <v>4.9407114624505928</v>
+      </c>
+      <c r="H12" s="126"/>
     </row>
     <row r="13" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="85">
+      <c r="B13" s="46">
         <v>0.25</v>
       </c>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="87"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="48"/>
       <c r="F13" s="6">
         <f>B13/F8</f>
-        <v>0.49603174603174605</v>
-      </c>
-      <c r="G13" s="39">
+        <v>0.49900199600798401</v>
+      </c>
+      <c r="G13" s="125">
         <f>B13/F9</f>
-        <v>0.49800796812749004</v>
-      </c>
-      <c r="H13" s="40"/>
+        <v>0.49407114624505927</v>
+      </c>
+      <c r="H13" s="126"/>
     </row>
     <row r="14" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="103">
+      <c r="B14" s="65">
         <v>5</v>
       </c>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="105"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="67"/>
       <c r="F14" s="6">
         <f>B14/F8</f>
-        <v>9.9206349206349209</v>
-      </c>
-      <c r="G14" s="39">
+        <v>9.9800399201596814</v>
+      </c>
+      <c r="G14" s="125">
         <f>B14/F9</f>
-        <v>9.9601593625498008</v>
-      </c>
-      <c r="H14" s="40"/>
+        <v>9.8814229249011856</v>
+      </c>
+      <c r="H14" s="126"/>
     </row>
     <row r="15" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="85">
+      <c r="B15" s="46">
         <v>0.15</v>
       </c>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="87"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="48"/>
       <c r="F15" s="6">
         <f>B15/F8</f>
-        <v>0.29761904761904762</v>
-      </c>
-      <c r="G15" s="39">
+        <v>0.29940119760479039</v>
+      </c>
+      <c r="G15" s="125">
         <f>B15/F9</f>
-        <v>0.29880478087649404</v>
-      </c>
-      <c r="H15" s="40"/>
+        <v>0.29644268774703558</v>
+      </c>
+      <c r="H15" s="126"/>
     </row>
     <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -3838,16 +3839,16 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="70" t="s">
+      <c r="A17" s="90" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="96" t="s">
+      <c r="B17" s="91"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="97"/>
+      <c r="F17" s="58"/>
       <c r="G17" s="21" t="s">
         <v>34</v>
       </c>
@@ -3856,70 +3857,70 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="72" t="s">
+      <c r="A18" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="84" t="s">
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="84"/>
+      <c r="F18" s="40"/>
       <c r="G18" s="23"/>
       <c r="H18" s="24"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="74" t="s">
+      <c r="A19" s="94" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="84" t="s">
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="F19" s="84"/>
+      <c r="F19" s="40"/>
       <c r="G19" s="23"/>
       <c r="H19" s="24"/>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="84" t="s">
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="84"/>
+      <c r="F20" s="40"/>
       <c r="G20" s="23"/>
       <c r="H20" s="24"/>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="72" t="s">
+      <c r="A21" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
       <c r="G21" s="23"/>
       <c r="H21" s="24"/>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="118" t="s">
+      <c r="A22" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="119"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="116" t="s">
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="117"/>
+      <c r="F22" s="42"/>
       <c r="G22" s="25"/>
       <c r="H22" s="26"/>
     </row>
@@ -3961,81 +3962,109 @@
       <c r="H25" s="17"/>
     </row>
     <row r="26" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="66" t="s">
+      <c r="A26" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="77" t="s">
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="77"/>
+      <c r="E26" s="43"/>
       <c r="F26" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="77" t="s">
+      <c r="G26" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="H26" s="78"/>
+      <c r="H26" s="97"/>
     </row>
     <row r="27" spans="1:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="83" t="s">
+      <c r="B27" s="86"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="83"/>
+      <c r="E27" s="103"/>
       <c r="F27" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="75" t="s">
+      <c r="G27" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="76"/>
+      <c r="H27" s="96"/>
     </row>
     <row r="28" spans="1:8" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="148" t="s">
+      <c r="A28" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="149"/>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="151" t="s">
+      <c r="B28" s="99"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="152"/>
-      <c r="H28" s="153"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="89"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="81" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="155" t="s">
+      <c r="B29" s="82"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="155"/>
+      <c r="E29" s="102"/>
       <c r="F29" s="4"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="80"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="101"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F30" s="156"/>
-      <c r="G30" s="157"/>
-      <c r="H30" s="158"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="E19:F19"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B10:E11"/>
     <mergeCell ref="A4:E4"/>
@@ -4052,39 +4081,11 @@
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C8:E8"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A22:D22"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4258,7 +4259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView view="pageLayout" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
@@ -4278,47 +4279,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="106" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="48"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="108"/>
     </row>
     <row r="2" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="127" t="s">
+      <c r="B2" s="110"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="149" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="53"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="112"/>
+      <c r="I2" s="113"/>
     </row>
     <row r="3" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="58" t="s">
+      <c r="B3" s="115"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="118" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="128"/>
-      <c r="I3" s="129"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="151"/>
     </row>
     <row r="4" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
@@ -4329,11 +4330,11 @@
       <c r="D4" s="35"/>
       <c r="E4" s="35"/>
       <c r="F4" s="35"/>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="44"/>
-      <c r="I4" s="45"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="105"/>
     </row>
     <row r="5" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
@@ -4343,188 +4344,188 @@
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
-      <c r="H5" s="62" t="s">
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="63"/>
+      <c r="I5" s="124"/>
     </row>
     <row r="6" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="130" t="s">
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="143" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="136"/>
-      <c r="H6" s="130" t="s">
+      <c r="G6" s="148"/>
+      <c r="H6" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="131"/>
+      <c r="I6" s="144"/>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="106" t="s">
+      <c r="A7" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="137">
+      <c r="B7" s="69"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="139">
         <v>1.5069999999999999</v>
       </c>
-      <c r="G7" s="137"/>
-      <c r="H7" s="134">
+      <c r="G7" s="139"/>
+      <c r="H7" s="140">
         <v>100.289</v>
       </c>
-      <c r="I7" s="134"/>
+      <c r="I7" s="140"/>
     </row>
     <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="107"/>
-      <c r="C8" s="138" t="s">
+      <c r="B8" s="69"/>
+      <c r="C8" s="137" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="138"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="137" t="s">
+      <c r="D8" s="137"/>
+      <c r="E8" s="138"/>
+      <c r="F8" s="139" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="137"/>
-      <c r="H8" s="137" t="s">
+      <c r="G8" s="139"/>
+      <c r="H8" s="139" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="134"/>
+      <c r="I8" s="140"/>
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="106" t="s">
+      <c r="A9" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="107"/>
-      <c r="C9" s="140"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="137" t="s">
+      <c r="B9" s="69"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="139" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="137"/>
-      <c r="H9" s="137" t="s">
+      <c r="G9" s="139"/>
+      <c r="H9" s="139" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="134"/>
+      <c r="I9" s="140"/>
     </row>
     <row r="10" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="108"/>
-      <c r="B10" s="88" t="s">
+      <c r="A10" s="70"/>
+      <c r="B10" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="145" t="s">
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="136" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="145"/>
-      <c r="H10" s="145"/>
-      <c r="I10" s="145"/>
+      <c r="G10" s="136"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
     </row>
     <row r="11" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="109"/>
-      <c r="B11" s="91"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="91" t="s">
+      <c r="A11" s="71"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="93"/>
-      <c r="H11" s="142" t="s">
+      <c r="G11" s="54"/>
+      <c r="H11" s="134" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="143"/>
+      <c r="I11" s="135"/>
     </row>
     <row r="12" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="100">
+      <c r="B12" s="62">
         <v>7.5</v>
       </c>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="144" t="s">
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="132" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="146"/>
-      <c r="H12" s="144" t="s">
+      <c r="G12" s="133"/>
+      <c r="H12" s="132" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="40"/>
+      <c r="I12" s="126"/>
     </row>
     <row r="13" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="85">
+      <c r="B13" s="46">
         <v>0.75</v>
       </c>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="144" t="s">
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="132" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="146"/>
-      <c r="H13" s="144" t="s">
+      <c r="G13" s="133"/>
+      <c r="H13" s="132" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="40"/>
+      <c r="I13" s="126"/>
     </row>
     <row r="14" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="103">
+      <c r="B14" s="65">
         <v>15</v>
       </c>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="144" t="s">
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="132" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="146"/>
-      <c r="H14" s="144" t="s">
+      <c r="G14" s="133"/>
+      <c r="H14" s="132" t="s">
         <v>54</v>
       </c>
-      <c r="I14" s="40"/>
+      <c r="I14" s="126"/>
     </row>
     <row r="15" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="85">
+      <c r="B15" s="46">
         <v>0.45</v>
       </c>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="144" t="s">
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="132" t="s">
         <v>54</v>
       </c>
-      <c r="G15" s="146"/>
-      <c r="H15" s="144" t="s">
+      <c r="G15" s="133"/>
+      <c r="H15" s="132" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="40"/>
+      <c r="I15" s="126"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -4533,17 +4534,17 @@
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="147" t="s">
+      <c r="A17" s="131" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="96" t="s">
+      <c r="B17" s="91"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
+      <c r="E17" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="96"/>
-      <c r="G17" s="96"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
       <c r="H17" s="21" t="s">
         <v>34</v>
       </c>
@@ -4552,75 +4553,75 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="72" t="s">
+      <c r="A18" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="84" t="s">
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
       <c r="H18" s="23"/>
       <c r="I18" s="24"/>
     </row>
     <row r="19" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="72" t="s">
+      <c r="A19" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="84" t="s">
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
       <c r="H19" s="23"/>
       <c r="I19" s="24"/>
     </row>
     <row r="20" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="84" t="s">
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
       <c r="H20" s="23"/>
       <c r="I20" s="24"/>
     </row>
     <row r="21" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="72" t="s">
+      <c r="A21" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="84"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
       <c r="H21" s="23"/>
       <c r="I21" s="24"/>
     </row>
     <row r="22" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="118" t="s">
+      <c r="A22" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="119"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="116" t="s">
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
       <c r="H22" s="25"/>
       <c r="I22" s="26"/>
     </row>
@@ -4628,9 +4629,9 @@
       <c r="A23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="120"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="120"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="152"/>
+      <c r="G23" s="152"/>
     </row>
     <row r="24" spans="1:9" s="10" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
@@ -4641,11 +4642,11 @@
       <c r="D24" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="121" t="s">
+      <c r="E24" s="153" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="121"/>
-      <c r="G24" s="121"/>
+      <c r="F24" s="153"/>
+      <c r="G24" s="153"/>
       <c r="H24" s="13"/>
       <c r="I24" s="14" t="s">
         <v>29</v>
@@ -4658,108 +4659,120 @@
       <c r="D25" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E25" s="122" t="s">
+      <c r="E25" s="154" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="122"/>
-      <c r="G25" s="122"/>
+      <c r="F25" s="154"/>
+      <c r="G25" s="154"/>
       <c r="H25" s="18"/>
       <c r="I25" s="17"/>
     </row>
     <row r="26" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="66" t="s">
+      <c r="A26" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="67"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="77" t="s">
+      <c r="B26" s="84"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="E26" s="77"/>
-      <c r="F26" s="123" t="s">
+      <c r="E26" s="43"/>
+      <c r="F26" s="155" t="s">
         <v>31</v>
       </c>
-      <c r="G26" s="124"/>
-      <c r="H26" s="77" t="s">
+      <c r="G26" s="156"/>
+      <c r="H26" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="I26" s="78"/>
+      <c r="I26" s="97"/>
     </row>
     <row r="27" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="83" t="s">
+      <c r="B27" s="86"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="83"/>
-      <c r="F27" s="125" t="s">
+      <c r="E27" s="103"/>
+      <c r="F27" s="157" t="s">
         <v>18</v>
       </c>
-      <c r="G27" s="126"/>
-      <c r="H27" s="75">
+      <c r="G27" s="158"/>
+      <c r="H27" s="95">
         <v>100.125</v>
       </c>
-      <c r="I27" s="76"/>
+      <c r="I27" s="96"/>
     </row>
     <row r="28" spans="1:9" ht="43.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="148" t="s">
+      <c r="A28" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="149"/>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="151" t="s">
+      <c r="B28" s="99"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="G28" s="152"/>
-      <c r="H28" s="152"/>
-      <c r="I28" s="153"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="89"/>
     </row>
     <row r="29" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="64" t="s">
+      <c r="A29" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="81">
+      <c r="B29" s="82"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="128">
         <v>45404</v>
       </c>
-      <c r="E29" s="82"/>
-      <c r="F29" s="154"/>
-      <c r="G29" s="81"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="80"/>
+      <c r="E29" s="129"/>
+      <c r="F29" s="130"/>
+      <c r="G29" s="128"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="B14:E14"/>
@@ -4769,42 +4782,30 @@
     <mergeCell ref="F13:G13"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="F15:G15"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:I2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="F29:G29"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4978,7 +4979,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
